--- a/data/trans_camb/P28A_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P28A_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-21,15</t>
+          <t>-5,55</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-23,33</t>
+          <t>-6,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-31,3</t>
+          <t>-7,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-24,37</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,09</t>
+          <t>-3,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-24,68</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-33,02</t>
+          <t>-4,79</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,54</t>
+          <t>-4,73</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-15,21</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-23,65</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-31,62</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-21,64</t>
+          <t>-6,72</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-36,5; -4,81</t>
+          <t>-13,67; 0,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,41; -11,19</t>
+          <t>-13,84; -0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-43,46; -20,15</t>
+          <t>-16,27; -2,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-35,76; -11,45</t>
+          <t>-10,51; 1,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,3; 16,64</t>
+          <t>-9,28; 1,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,87; -10,56</t>
+          <t>-11,59; -1,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-46,98; -18,09</t>
+          <t>-9,73; -0,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,03; -3,64</t>
+          <t>-9,8; -1,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-27,02; -1,63</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-32,98; -14,59</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-40,64; -23,16</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-32,16; -12,4</t>
+          <t>-11,27; -3,3</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-58,64%</t>
+          <t>-57,97%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-64,69%</t>
+          <t>-62,8%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-86,79%</t>
+          <t>-81,91%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-67,57%</t>
+          <t>-50,08%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,66%</t>
+          <t>-44,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-58,29%</t>
+          <t>-70,14%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-77,98%</t>
+          <t>-54,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-46,15%</t>
+          <t>-53,39%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-39,46%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-61,37%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-82,05%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-56,16%</t>
+          <t>-75,89%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-83,73; -4,6</t>
+          <t>-88,56; 42,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-81,7; -39,25</t>
+          <t>-86,3; -2,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-95,09; -68,54</t>
+          <t>-94,71; -42,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-83,29; -40,58</t>
+          <t>-83,82; 39,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-46,44; 50,96</t>
+          <t>-75,14; 35,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,58; -30,41</t>
+          <t>-88,7; -11,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-90,76; -55,29</t>
+          <t>-79,34; -9,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-65,27; -7,7</t>
+          <t>-74,87; -16,97</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-62,71; -4,6</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-74,55; -43,72</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-89,97; -68,99</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-71,12; -37,3</t>
+          <t>-88,06; -52,01</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-12,68</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-18,79</t>
+          <t>-5,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-21,41</t>
+          <t>-7,22</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,48</t>
+          <t>-4,84</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-13,41</t>
+          <t>-4,09</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-19,77</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-16,89</t>
+          <t>-4,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-13,82</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,08</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-19,23</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-19,52</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-15,55</t>
+          <t>-5,74</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,91; -4,07</t>
+          <t>-8,44; 2,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-26,48; -11,73</t>
+          <t>-10,07; -0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-29,03; -13,55</t>
+          <t>-11,94; -3,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,81; -8,29</t>
+          <t>-8,93; -1,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-21,55; -4,22</t>
+          <t>-7,97; -0,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-27,47; -12,65</t>
+          <t>-8,04; -0,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-24,94; -9,32</t>
+          <t>-7,75; -0,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,33; -4,32</t>
+          <t>-8,12; -1,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,98; -6,51</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-24,3; -13,87</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-25,07; -13,95</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-21,22; -9,5</t>
+          <t>-8,63; -3,04</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-40,48%</t>
+          <t>-29,25%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-59,95%</t>
+          <t>-50,21%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-68,31%</t>
+          <t>-64,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-52,6%</t>
+          <t>-48,76%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-38,87%</t>
+          <t>-41,24%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-57,31%</t>
+          <t>-42,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-48,97%</t>
+          <t>-38,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-40,06%</t>
+          <t>-45,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-39,92%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-58,69%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-59,57%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-47,45%</t>
+          <t>-54,43%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-60,7; -14,59</t>
+          <t>-60,94; 23,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-72,96; -41,82</t>
+          <t>-70,52; -12,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-81,4; -49,74</t>
+          <t>-79,39; -32,78</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-69,01; -29,85</t>
+          <t>-70,52; -8,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-57,22; -14,15</t>
+          <t>-63,14; -3,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-69,95; -40,26</t>
+          <t>-63,96; -10,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-64,85; -30,72</t>
+          <t>-60,64; -9,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-58,37; -13,77</t>
+          <t>-62,26; -23,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-53,15; -22,88</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-68,03; -46,16</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-70,66; -46,25</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-59,84; -31,19</t>
+          <t>-67,87; -33,73</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,4</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-11,63</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-12,44</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,17</t>
+          <t>-4,05</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-14,11</t>
+          <t>-5,02</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-25,2</t>
+          <t>-4,8</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-23,61</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-19,32</t>
+          <t>-3,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-18,76</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-18,29</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>-15,11</t>
+          <t>-3,5</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,2; 24,04</t>
+          <t>-3,19; 8,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,73; -1,62</t>
+          <t>-5,45; 2,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-22,71; -1,85</t>
+          <t>-6,11; 1,28</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-22,67; 3,32</t>
+          <t>-9,03; 0,63</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,26; 0,92</t>
+          <t>-10,22; -0,97</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-36,09; -15,07</t>
+          <t>-9,77; -1,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-35,2; -13,82</t>
+          <t>-4,84; 2,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-32,33; -3,85</t>
+          <t>-6,48; -0,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-14,18; 6,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-26,17; -10,35</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-25,81; -10,5</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-24,27; -5,09</t>
+          <t>-6,2; -0,5</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>28,77%</t>
+          <t>36,03%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-52,3%</t>
+          <t>-32,02%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-55,94%</t>
+          <t>-39,19%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-45,74%</t>
+          <t>-43,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-36,79%</t>
+          <t>-53,96%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-65,7%</t>
+          <t>-51,55%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-61,55%</t>
+          <t>-18,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-50,36%</t>
+          <t>-47,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-13,17%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-61,23%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-59,72%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>-49,33%</t>
+          <t>-48,19%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,84; 148,48</t>
+          <t>-54,4; 309,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-78,72; -7,1</t>
+          <t>-74,05; 78,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-80,05; -2,41</t>
+          <t>-76,87; 71,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-80,21; 28,23</t>
+          <t>-72,67; 11,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-60,51; 3,08</t>
+          <t>-77,5; -10,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,05; -44,84</t>
+          <t>-73,57; -9,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-76,06; -42,2</t>
+          <t>-54,37; 49,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-74,61; -10,61</t>
+          <t>-68,61; -10,96</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 26,14</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-75,35; -41,23</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-72,92; -40,59</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>-69,45; -16,93</t>
+          <t>-66,89; -6,09</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-9,86</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-18,05</t>
+          <t>-5,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-21,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-16,65</t>
+          <t>-3,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-12,33</t>
+          <t>-6,98</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-21,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-21,74</t>
+          <t>-2,86</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-15,56</t>
+          <t>-6,42</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-11,15</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-19,77</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-21,5</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-16,3</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-16,54; -2,33</t>
+          <t>-5,56; 3,47</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,72; -12,55</t>
+          <t>-8,85; -2,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-26,83; -15,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-22,22; -10,26</t>
+          <t>-6,51; -0,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,39; -4,94</t>
+          <t>-9,5; -4,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-27,74; -16,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,6; -16,58</t>
+          <t>-5,21; 0,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-21,61; -9,27</t>
+          <t>-8,52; -4,19</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,92; -6,25</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-23,74; -15,9</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-25,65; -17,52</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-20,68; -11,76</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-32,74%</t>
+          <t>-19,34%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-59,91%</t>
+          <t>-56,62%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-70,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-55,27%</t>
+          <t>-37,07%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-33,69%</t>
+          <t>-69,54%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-59,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-59,42%</t>
+          <t>-27,79%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-42,51%</t>
+          <t>-62,49%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-33,66%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-59,71%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-64,95%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-49,22%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,283 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-50,47; -7,59</t>
+          <t>-49,81; 35,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-70,77; -47,17</t>
+          <t>-76,5; -23,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-80,6; -57,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-67,0; -38,75</t>
+          <t>-57,71; -9,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-49,21; -15,07</t>
+          <t>-84,98; -45,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-69,32; -49,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-68,39; -49,0</t>
+          <t>-46,8; 8,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-55,11; -27,1</t>
+          <t>-75,41; -42,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-45,59; -20,24</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-66,75; -50,81</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-71,57; -56,25</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-58,67; -37,53</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-2,33</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-5,38</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-6,64</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-4,29</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-5,16</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-5,29</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-3,33</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-5,27</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-5,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 0,67</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-7,26; -3,35</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-8,59; -4,57</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-6,21; -2,53</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; -3,41</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-7,13; -3,65</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; -1,63</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; -3,95</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-7,32; -4,6</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-23,65%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-54,66%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-67,5%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-43,87%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-52,81%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-54,14%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-33,92%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-53,72%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-60,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-46,63; 8,45</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-66,1; -37,93</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-78,22; -49,57</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-57,52; -27,55</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-64,17; -38,16</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-65,71; -40,68</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-47,25; -16,99</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-61,6; -42,96</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-68,81; -51,07</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
